--- a/Business - Technology Services/DAVE.xlsx
+++ b/Business - Technology Services/DAVE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370B7823-500E-46A9-803D-6AD32F0D529B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799EB2DC-4EB2-4A26-81E3-E31374916F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="240" windowWidth="14190" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18300" yWindow="195" windowWidth="10470" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$N$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$N$5:$AA$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$N$6:$AA$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$N$21:$AA$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$N$22:$AA$22</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$N$2:$AA$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$N$21:$AA$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$N$22:$AA$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$N$2:$AA$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$N$2:$AA$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$N$5:$AA$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$N$6:$AA$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="213">
   <si>
     <t>Price</t>
   </si>
@@ -738,15 +738,6 @@
     <t>Strong buy</t>
   </si>
   <si>
-    <t>Goldman Sachs</t>
-  </si>
-  <si>
-    <t>Wells Fargo</t>
-  </si>
-  <si>
-    <t>TD Cowen</t>
-  </si>
-  <si>
     <t>Price Targets</t>
   </si>
   <si>
@@ -932,6 +923,42 @@
   <si>
     <t>Processing fees</t>
   </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>B Riley</t>
+  </si>
+  <si>
+    <t>Canaccord</t>
+  </si>
+  <si>
+    <t>barrington</t>
+  </si>
+  <si>
+    <t>jmp</t>
+  </si>
+  <si>
+    <t>citizens</t>
+  </si>
+  <si>
+    <t>jpmorgan</t>
+  </si>
+  <si>
+    <t>benchmark</t>
+  </si>
+  <si>
+    <t>Neobanking focusing on Credit</t>
+  </si>
+  <si>
+    <t>Growth Driver: New Users</t>
+  </si>
+  <si>
+    <t>Grow Transactions</t>
+  </si>
 </sst>
 </file>
 
@@ -942,8 +969,8 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="[$-407]mmm/\ yy;@"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1837,6 +1864,15 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1895,28 +1931,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2101,10 +2128,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45413</c:v>
                 </c:pt>
@@ -2137,16 +2164,37 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$2:$L$2</c:f>
+              <c:f>Analysts!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2240,10 +2288,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45413</c:v>
                 </c:pt>
@@ -2276,16 +2324,37 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$3:$L$3</c:f>
+              <c:f>Analysts!$B$3:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2379,10 +2448,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45413</c:v>
                 </c:pt>
@@ -2415,16 +2484,46 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$4:$L$4</c:f>
+              <c:f>Analysts!$B$4:$S$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2518,10 +2617,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45413</c:v>
                 </c:pt>
@@ -2554,21 +2653,90 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$5:$L$5</c:f>
+              <c:f>Analysts!$B$5:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2663,10 +2831,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45413</c:v>
                 </c:pt>
@@ -2699,21 +2867,72 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$6:$L$6</c:f>
+              <c:f>Analysts!$B$6:$S$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2879,6 +3098,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2886,7 +3106,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3223,6 +3442,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3230,7 +3450,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3347,7 +3566,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Goldman Sachs</c:v>
+                  <c:v>B Riley</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3378,10 +3597,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45413</c:v>
                 </c:pt>
@@ -3414,24 +3633,54 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$10:$L$10</c:f>
+              <c:f>Analysts!$B$10:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
+                <c:ptCount val="18"/>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80</c:v>
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3452,7 +3701,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Wells Fargo</c:v>
+                  <c:v>Canaccord</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3483,10 +3732,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45413</c:v>
                 </c:pt>
@@ -3519,24 +3768,54 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$11:$L$11</c:f>
+              <c:f>Analysts!$B$11:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90</c:v>
+                <c:ptCount val="18"/>
+                <c:pt idx="10">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3557,7 +3836,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TD Cowen</c:v>
+                  <c:v>barrington</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3588,10 +3867,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45413</c:v>
                 </c:pt>
@@ -3624,24 +3903,39 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$12:$L$12</c:f>
+              <c:f>Analysts!$B$12:$S$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
+                <c:ptCount val="18"/>
+                <c:pt idx="15">
+                  <c:v>290</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3650,6 +3944,528 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-056B-4CCB-ADAE-0606DD7B1945}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysts!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Analysts!$B$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysts!$B$13:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="10">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-179B-4BC2-8924-E23F65F40B3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysts!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>citizens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Analysts!$B$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysts!$B$14:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="10">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-179B-4BC2-8924-E23F65F40B3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysts!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jpmorgan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Analysts!$B$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysts!$B$15:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-179B-4BC2-8924-E23F65F40B3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysts!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>benchmark</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Analysts!$B$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysts!$B$16:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="17">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-179B-4BC2-8924-E23F65F40B3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3803,6 +4619,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3810,7 +4627,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4132,8 +4948,8 @@
                 <c:pt idx="12" formatCode="0.0">
                   <c:v>107.979</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>111.96</c:v>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>131.75700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4506,6 +5322,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4513,7 +5330,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4798,10 +5614,10 @@
                   <c:v>347.07599999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>465.14</c:v>
+                  <c:v>512.11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>548.04</c:v>
+                  <c:v>591.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4939,10 +5755,10 @@
                   <c:v>0.33958076829555384</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34016757136765441</c:v>
+                  <c:v>0.47549816178589155</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17822591047856551</c:v>
+                  <c:v>0.15455663822225696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5162,6 +5978,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5169,7 +5986,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5456,7 +6272,7 @@
                   <c:v>1.9671558975828116</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.62112577948193404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5829,6 +6645,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5836,7 +6653,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6212,10 +7028,10 @@
                   <c:v>-2.0299220405031395</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0349454605774735</c:v>
+                  <c:v>1.39798737373214</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11971830985915499</c:v>
+                  <c:v>0.15936254980079689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6435,6 +7251,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6442,7 +7259,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6761,7 +7577,7 @@
                   <c:v>9.5527834115892898E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.11730686035656548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6965,7 +7781,7 @@
                   <c:v>0.25477176117578421</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.20059655274482568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7301,6 +8117,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7308,7 +8125,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8067,6 +8883,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8074,7 +8891,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8369,6 +9185,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8376,7 +9193,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8416,18 +9232,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8471,7 +9287,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8491,7 +9307,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8522,18 +9338,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8577,7 +9393,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8597,7 +9413,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15270,14 +16086,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15309,13 +16125,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16083,7 +16899,7 @@
   <dimension ref="B2:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16104,7 +16920,7 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
@@ -16138,34 +16954,34 @@
         <v>35</v>
       </c>
       <c r="C3" s="20">
-        <v>45804</v>
+        <v>45959</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="28"/>
       <c r="I3" s="10"/>
       <c r="J3" s="38"/>
       <c r="L3" s="50" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M3" s="50" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.10277777777777777</v>
+        <v>0.76875000000000004</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="28"/>
       <c r="I4" s="10"/>
       <c r="J4" s="38"/>
       <c r="L4" s="50" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M4" s="50" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -16177,10 +16993,10 @@
       <c r="I5" s="10"/>
       <c r="J5" s="38"/>
       <c r="L5" s="50" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N5" s="13"/>
     </row>
@@ -16189,17 +17005,17 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>197.32</v>
+        <v>248.62</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="28"/>
       <c r="I6" s="10"/>
       <c r="J6" s="38"/>
       <c r="L6" s="50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M6" s="50" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -16208,18 +17024,18 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!Z20</f>
-        <v>14.646526</v>
+        <f>Model!AA20</f>
+        <v>14.554218000000001</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="28"/>
       <c r="I7" s="10"/>
       <c r="J7" s="38"/>
       <c r="L7" s="50" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M7" s="50" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -16229,17 +17045,17 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>2890.0525103199998</v>
+        <v>3618.4696791600004</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="28"/>
       <c r="I8" s="10"/>
       <c r="J8" s="38"/>
       <c r="L8" s="50" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M8" s="50" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -16248,18 +17064,18 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!Z37+Model!Z38+Model!Z40</f>
-        <v>88.076999999999998</v>
+        <f>Model!AA37+Model!AA38+Model!AA40</f>
+        <v>102.85299999999999</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="28"/>
       <c r="I9" s="10"/>
       <c r="J9" s="38"/>
       <c r="L9" s="50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M9" s="50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -16268,7 +17084,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!Z58</f>
+        <f>Model!AA58</f>
         <v>75</v>
       </c>
       <c r="E10" s="5"/>
@@ -16276,10 +17092,10 @@
       <c r="I10" s="10"/>
       <c r="J10" s="38"/>
       <c r="L10" s="51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M10" s="52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N10" s="13"/>
     </row>
@@ -16289,7 +17105,7 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>13.076999999999998</v>
+        <v>27.852999999999994</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="28"/>
@@ -16304,7 +17120,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>2876.9755103199996</v>
+        <v>3590.6166791600003</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28"/>
@@ -16318,7 +17134,7 @@
       </c>
       <c r="C13" s="36">
         <f>C6/Model!H21</f>
-        <v>47.128572568209755</v>
+        <v>59.38123713717976</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -16331,7 +17147,7 @@
       </c>
       <c r="C14" s="36">
         <f>C6/Model!I22</f>
-        <v>23.15962441314554</v>
+        <v>24.762948207171316</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -16349,7 +17165,7 @@
       </c>
       <c r="C15" s="36">
         <f>C6/Model!J22</f>
-        <v>20.683438155136269</v>
+        <v>21.359106529209622</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -16358,7 +17174,7 @@
       </c>
       <c r="C16" s="6">
         <f>Model!I22/Model!H21-1</f>
-        <v>1.0349454605774735</v>
+        <v>1.39798737373214</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -16367,16 +17183,16 @@
       </c>
       <c r="C17" s="6">
         <f>Model!J22/Model!I22-1</f>
-        <v>0.11971830985915499</v>
+        <v>0.15936254980079689</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="124" t="s">
-        <v>147</v>
-      </c>
-      <c r="M17" s="125"/>
-      <c r="N17" s="126"/>
+      <c r="L17" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" s="134"/>
+      <c r="N17" s="135"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -16384,11 +17200,14 @@
       </c>
       <c r="C18" s="45">
         <f>C14/(C16*100)</f>
-        <v>0.22377627899563954</v>
-      </c>
-      <c r="L18" s="127"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="129"/>
+        <v>0.17713284592165418</v>
+      </c>
+      <c r="E18" t="s">
+        <v>210</v>
+      </c>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -16396,11 +17215,14 @@
       </c>
       <c r="C19" s="45">
         <f>C15/(C17*100)</f>
-        <v>1.7276754223702051</v>
-      </c>
-      <c r="L19" s="127"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="129"/>
+        <v>1.3402839347079032</v>
+      </c>
+      <c r="E19" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="136"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="138"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -16408,11 +17230,14 @@
       </c>
       <c r="C20" s="6">
         <f>Model!I6/Model!H5-1</f>
-        <v>0.34016757136765441</v>
-      </c>
-      <c r="L20" s="127"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="129"/>
+        <v>0.47549816178589155</v>
+      </c>
+      <c r="E20" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="136"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="138"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -16420,11 +17245,11 @@
       </c>
       <c r="C21" s="6">
         <f>Model!J6/Model!I6-1</f>
-        <v>0.17822591047856551</v>
-      </c>
-      <c r="L21" s="127"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="129"/>
+        <v>0.15455663822225696</v>
+      </c>
+      <c r="L21" s="136"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="138"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -16434,9 +17259,9 @@
         <f>Model!H17</f>
         <v>60.353999999999935</v>
       </c>
-      <c r="L22" s="127"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="129"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="138"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -16446,9 +17271,9 @@
         <f>Model!H12</f>
         <v>34.610999999999933</v>
       </c>
-      <c r="L23" s="127"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="129"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="138"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -16458,9 +17283,9 @@
         <f>Model!H23</f>
         <v>9.9721674791688086E-2</v>
       </c>
-      <c r="L24" s="127"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="129"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="138"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -16470,9 +17295,9 @@
         <f>Model!H24</f>
         <v>0.16674445942675362</v>
       </c>
-      <c r="L25" s="127"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="129"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="138"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -16480,11 +17305,11 @@
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>83.123154786628675</v>
-      </c>
-      <c r="L26" s="127"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="129"/>
+        <v>103.74206694865815</v>
+      </c>
+      <c r="L26" s="136"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="138"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -16497,18 +17322,18 @@
       <c r="E27" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="127"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="129"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="138"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="36"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="132"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="141"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -16628,13 +17453,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AB84"/>
+  <dimension ref="A1:AC84"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomRight" activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16642,16 +17467,16 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="13"/>
-    <col min="25" max="25" width="11.42578125" style="143"/>
-    <col min="26" max="26" width="11.42578125" style="13"/>
+    <col min="26" max="26" width="11.42578125" style="152"/>
+    <col min="27" max="27" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>28</v>
       </c>
@@ -16674,7 +17499,7 @@
         <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N2" t="s">
         <v>10</v>
@@ -16709,21 +17534,27 @@
       <c r="X2" t="s">
         <v>130</v>
       </c>
-      <c r="Y2" s="143" t="s">
+      <c r="Y2" t="s">
         <v>131</v>
       </c>
-      <c r="Z2" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z2" s="152" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="150">
+        <v>178</v>
+      </c>
+      <c r="G3" s="124">
         <v>232.24100000000001</v>
       </c>
       <c r="H3" s="13">
@@ -16735,35 +17566,38 @@
       <c r="S3">
         <v>54.984999999999999</v>
       </c>
-      <c r="T3" s="150">
+      <c r="T3" s="124">
         <v>59.179000000000002</v>
       </c>
-      <c r="U3" s="150">
+      <c r="U3" s="124">
         <f>G3-T3-S3-R3</f>
         <v>65.501000000000005</v>
       </c>
-      <c r="V3" s="150">
+      <c r="V3" s="124">
         <v>65.561999999999998</v>
       </c>
-      <c r="W3" s="150">
+      <c r="W3" s="124">
         <v>71.650999999999996</v>
       </c>
-      <c r="X3" s="150">
+      <c r="X3" s="124">
         <v>83.39</v>
       </c>
-      <c r="Y3" s="156">
+      <c r="Y3" s="124">
         <f>H3-X3-W3-V3</f>
         <v>90.822999999999993</v>
       </c>
-      <c r="Z3" s="151">
+      <c r="Z3" s="153">
         <v>97.850999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA3" s="125">
+        <v>121.593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="150">
+        <v>179</v>
+      </c>
+      <c r="G4" s="124">
         <v>26.852</v>
       </c>
       <c r="H4" s="13">
@@ -16775,124 +17609,128 @@
       <c r="S4">
         <v>6.25</v>
       </c>
-      <c r="T4" s="150">
+      <c r="T4" s="124">
         <v>6.6319999999999997</v>
       </c>
-      <c r="U4" s="150">
+      <c r="U4" s="124">
         <f>G4-T4-S4-R4</f>
         <v>7.6179999999999986</v>
       </c>
-      <c r="V4" s="150">
+      <c r="V4" s="124">
         <v>8.0679999999999996</v>
       </c>
-      <c r="W4" s="150">
+      <c r="W4" s="124">
         <v>8.4659999999999993</v>
       </c>
-      <c r="X4" s="150">
+      <c r="X4" s="124">
         <v>9.0990000000000002</v>
       </c>
-      <c r="Y4" s="156">
+      <c r="Y4" s="124">
         <f>H4-X4-W4-V4</f>
         <v>10.017000000000001</v>
       </c>
-      <c r="Z4" s="151">
+      <c r="Z4" s="153">
         <v>10.128</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="125">
+        <v>10.164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="11">
-        <f>SUM(C3:C4)</f>
+        <f t="shared" ref="C5:H5" si="0">SUM(C3:C4)</f>
         <v>0</v>
       </c>
       <c r="D5" s="11">
-        <f>SUM(D3:D4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="11">
-        <f>SUM(E3:E4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="11">
-        <f>SUM(F3:F4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="11">
-        <f>SUM(G3:G4)</f>
+        <f t="shared" si="0"/>
         <v>259.09300000000002</v>
       </c>
       <c r="H5" s="14">
-        <f>SUM(H3:H4)</f>
+        <f t="shared" si="0"/>
         <v>347.07599999999996</v>
       </c>
       <c r="I5" s="11">
-        <v>465.14</v>
+        <v>512.11</v>
       </c>
       <c r="J5" s="11">
-        <v>548.04</v>
+        <v>591.26</v>
       </c>
       <c r="N5" s="11">
-        <f>SUM(N3:N4)</f>
+        <f t="shared" ref="N5:AA5" si="1">SUM(N3:N4)</f>
         <v>0</v>
       </c>
       <c r="O5" s="11">
-        <f>SUM(O3:O4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5" s="11">
-        <f>SUM(P3:P4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q5" s="11">
-        <f>SUM(Q3:Q4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R5" s="11">
-        <f>SUM(R3:R4)</f>
+        <f t="shared" si="1"/>
         <v>58.927999999999997</v>
       </c>
       <c r="S5" s="11">
-        <f>SUM(S3:S4)</f>
+        <f t="shared" si="1"/>
         <v>61.234999999999999</v>
       </c>
-      <c r="T5" s="157">
-        <f>SUM(T3:T4)</f>
+      <c r="T5" s="129">
+        <f t="shared" si="1"/>
         <v>65.811000000000007</v>
       </c>
       <c r="U5" s="11">
-        <f>SUM(U3:U4)</f>
+        <f t="shared" si="1"/>
         <v>73.119</v>
       </c>
-      <c r="V5" s="157">
-        <f>SUM(V3:V4)</f>
+      <c r="V5" s="129">
+        <f t="shared" si="1"/>
         <v>73.63</v>
       </c>
-      <c r="W5" s="157">
-        <f>SUM(W3:W4)</f>
+      <c r="W5" s="129">
+        <f t="shared" si="1"/>
         <v>80.11699999999999</v>
       </c>
-      <c r="X5" s="157">
-        <f>SUM(X3:X4)</f>
+      <c r="X5" s="129">
+        <f t="shared" si="1"/>
         <v>92.489000000000004</v>
       </c>
-      <c r="Y5" s="158">
-        <f>SUM(Y3:Y4)</f>
+      <c r="Y5" s="129">
+        <f t="shared" si="1"/>
         <v>100.83999999999999</v>
       </c>
-      <c r="Z5" s="152">
-        <f>SUM(Z3:Z4)</f>
+      <c r="Z5" s="154">
+        <f t="shared" si="1"/>
         <v>107.979</v>
       </c>
-      <c r="AA5" s="11">
-        <v>111.96</v>
+      <c r="AA5" s="154">
+        <f t="shared" si="1"/>
+        <v>131.75700000000001</v>
       </c>
       <c r="AB5" s="1">
         <v>119.09</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>57</v>
       </c>
@@ -16903,10 +17741,10 @@
       <c r="G6" s="10"/>
       <c r="H6" s="117"/>
       <c r="I6" s="42">
-        <v>465.14</v>
+        <v>512.11</v>
       </c>
       <c r="J6" s="122">
-        <v>548.04</v>
+        <v>591.26</v>
       </c>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
@@ -16914,23 +17752,26 @@
       <c r="Q6" s="40"/>
       <c r="R6" s="40"/>
       <c r="S6" s="40"/>
-      <c r="T6" s="159"/>
+      <c r="T6" s="130"/>
       <c r="U6" s="40"/>
-      <c r="V6" s="159"/>
-      <c r="W6" s="159"/>
-      <c r="X6" s="159"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="161"/>
-      <c r="AA6" s="40">
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="155"/>
+      <c r="AA6" s="117">
         <v>111.96</v>
       </c>
       <c r="AB6">
-        <v>119.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+        <v>133.5</v>
+      </c>
+      <c r="AC6">
+        <v>138.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -16942,8 +17783,7 @@
       <c r="H7" s="117">
         <v>54.625999999999998</v>
       </c>
-      <c r="I7" s="162"/>
-      <c r="J7" s="163"/>
+      <c r="I7" s="40"/>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
@@ -16954,34 +17794,36 @@
       <c r="S7" s="40">
         <v>15.925000000000001</v>
       </c>
-      <c r="T7" s="159">
+      <c r="T7" s="130">
         <v>15.983000000000001</v>
       </c>
-      <c r="U7" s="150">
-        <f t="shared" ref="U7:U11" si="0">G7-T7-S7-R7</f>
+      <c r="U7" s="124">
+        <f t="shared" ref="U7:U11" si="2">G7-T7-S7-R7</f>
         <v>14.525000000000006</v>
       </c>
-      <c r="V7" s="159">
+      <c r="V7" s="130">
         <v>9.9429999999999996</v>
       </c>
-      <c r="W7" s="159">
+      <c r="W7" s="130">
         <v>14.365</v>
       </c>
-      <c r="X7" s="159">
+      <c r="X7" s="130">
         <v>13.68</v>
       </c>
-      <c r="Y7" s="156">
-        <f t="shared" ref="Y7:Y11" si="1">H7-X7-W7-V7</f>
+      <c r="Y7" s="124">
+        <f t="shared" ref="Y7:Y11" si="3">H7-X7-W7-V7</f>
         <v>16.637999999999998</v>
       </c>
-      <c r="Z7" s="161">
+      <c r="Z7" s="155">
         <v>10.603</v>
       </c>
-      <c r="AA7" s="40"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA7" s="163">
+        <v>25.295000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -16993,8 +17835,7 @@
       <c r="H8" s="117">
         <v>30.376999999999999</v>
       </c>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
+      <c r="I8" s="40"/>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
@@ -17005,34 +17846,37 @@
       <c r="S8" s="40">
         <v>7.2320000000000002</v>
       </c>
-      <c r="T8" s="159">
+      <c r="T8" s="130">
         <v>7.0640000000000001</v>
       </c>
-      <c r="U8" s="150">
-        <f t="shared" si="0"/>
+      <c r="U8" s="124">
+        <f t="shared" si="2"/>
         <v>7.5119999999999987</v>
       </c>
-      <c r="V8" s="159">
+      <c r="V8" s="130">
         <v>7.7229999999999999</v>
       </c>
-      <c r="W8" s="159">
+      <c r="W8" s="130">
         <v>7.7939999999999996</v>
       </c>
-      <c r="X8" s="159">
+      <c r="X8" s="130">
         <v>8.5760000000000005</v>
       </c>
-      <c r="Y8" s="156">
-        <f t="shared" si="1"/>
+      <c r="Y8" s="124">
+        <f t="shared" si="3"/>
         <v>6.283999999999998</v>
       </c>
-      <c r="Z8" s="161">
+      <c r="Z8" s="155">
         <v>7.1059999999999999</v>
       </c>
-      <c r="AA8" s="40"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA8" s="163">
+        <f>7.17+7.227</f>
+        <v>14.397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -17055,34 +17899,36 @@
       <c r="S9" s="10">
         <v>14.984999999999999</v>
       </c>
-      <c r="T9" s="150">
+      <c r="T9" s="124">
         <v>13.914</v>
       </c>
-      <c r="U9" s="150">
-        <f t="shared" si="0"/>
+      <c r="U9" s="124">
+        <f t="shared" si="2"/>
         <v>10.022000000000002</v>
       </c>
-      <c r="V9" s="150">
+      <c r="V9" s="124">
         <v>9.0969999999999995</v>
       </c>
-      <c r="W9" s="150">
+      <c r="W9" s="124">
         <v>10.743</v>
       </c>
-      <c r="X9" s="150">
+      <c r="X9" s="124">
         <v>12.500999999999999</v>
       </c>
-      <c r="Y9" s="156">
-        <f t="shared" si="1"/>
+      <c r="Y9" s="124">
+        <f t="shared" si="3"/>
         <v>12.563000000000004</v>
       </c>
-      <c r="Z9" s="161">
+      <c r="Z9" s="155">
         <v>10.315</v>
       </c>
-      <c r="AA9" s="10"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA9" s="164">
+        <v>15.456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -17105,34 +17951,36 @@
       <c r="S10" s="10">
         <v>23.931999999999999</v>
       </c>
-      <c r="T10" s="150">
+      <c r="T10" s="124">
         <v>23.081</v>
       </c>
-      <c r="U10" s="150">
-        <f t="shared" si="0"/>
+      <c r="U10" s="124">
+        <f t="shared" si="2"/>
         <v>23.52999999999999</v>
       </c>
-      <c r="V10" s="150">
+      <c r="V10" s="124">
         <v>24.552</v>
       </c>
-      <c r="W10" s="150">
+      <c r="W10" s="124">
         <v>24.515000000000001</v>
       </c>
-      <c r="X10" s="150">
+      <c r="X10" s="124">
         <v>30.763000000000002</v>
       </c>
-      <c r="Y10" s="156">
-        <f t="shared" si="1"/>
+      <c r="Y10" s="124">
+        <f t="shared" si="3"/>
         <v>27.198</v>
       </c>
-      <c r="Z10" s="151">
+      <c r="Z10" s="153">
         <v>27.51</v>
       </c>
-      <c r="AA10" s="10"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA10" s="164">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -17155,49 +18003,52 @@
       <c r="S11" s="10">
         <v>20.077999999999999</v>
       </c>
-      <c r="T11" s="150">
+      <c r="T11" s="124">
         <v>16.343</v>
       </c>
-      <c r="U11" s="150">
-        <f t="shared" si="0"/>
+      <c r="U11" s="124">
+        <f t="shared" si="2"/>
         <v>15.756999999999994</v>
       </c>
-      <c r="V11" s="150">
+      <c r="V11" s="124">
         <v>16.916</v>
       </c>
-      <c r="W11" s="150">
+      <c r="W11" s="124">
         <v>17.030999999999999</v>
       </c>
-      <c r="X11" s="150">
+      <c r="X11" s="124">
         <v>24.419</v>
       </c>
-      <c r="Y11" s="156">
-        <f t="shared" si="1"/>
+      <c r="Y11" s="124">
+        <f t="shared" si="3"/>
         <v>17.164000000000005</v>
       </c>
-      <c r="Z11" s="151">
+      <c r="Z11" s="153">
         <v>17.295999999999999</v>
       </c>
-      <c r="AA11" s="10"/>
-    </row>
-    <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA11" s="164">
+        <f>2.894+6.203</f>
+        <v>9.0970000000000013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="11">
-        <f t="shared" ref="C12:F12" si="2">C5-SUM(C7:C11)</f>
+        <f t="shared" ref="C12:F12" si="4">C5-SUM(C7:C11)</f>
         <v>0</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G12" s="11">
@@ -17210,75 +18061,75 @@
       </c>
       <c r="I12" s="11">
         <f>I5-SUM(I9:I11)</f>
-        <v>465.14</v>
+        <v>512.11</v>
       </c>
       <c r="J12" s="11">
         <f>J5-SUM(J9:J11)</f>
-        <v>548.04</v>
+        <v>591.26</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11">
-        <f t="shared" ref="N12:AA12" si="3">N5-SUM(N7:N11)</f>
+        <f t="shared" ref="N12:AA12" si="5">N5-SUM(N7:N11)</f>
         <v>0</v>
       </c>
       <c r="O12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-12.481999999999999</v>
       </c>
       <c r="S12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-20.917000000000002</v>
       </c>
-      <c r="T12" s="157">
-        <f t="shared" si="3"/>
+      <c r="T12" s="129">
+        <f t="shared" si="5"/>
         <v>-10.573999999999998</v>
       </c>
       <c r="U12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7730000000000103</v>
       </c>
-      <c r="V12" s="157">
-        <f t="shared" si="3"/>
+      <c r="V12" s="129">
+        <f t="shared" si="5"/>
         <v>5.3990000000000009</v>
       </c>
-      <c r="W12" s="157">
-        <f t="shared" si="3"/>
+      <c r="W12" s="129">
+        <f t="shared" si="5"/>
         <v>5.6689999999999827</v>
       </c>
-      <c r="X12" s="157">
-        <f t="shared" si="3"/>
+      <c r="X12" s="129">
+        <f t="shared" si="5"/>
         <v>2.5500000000000114</v>
       </c>
-      <c r="Y12" s="158">
-        <f t="shared" si="3"/>
+      <c r="Y12" s="129">
+        <f t="shared" si="5"/>
         <v>20.992999999999981</v>
       </c>
-      <c r="Z12" s="152">
-        <f t="shared" si="3"/>
+      <c r="Z12" s="154">
+        <f t="shared" si="5"/>
         <v>35.148999999999987</v>
       </c>
-      <c r="AA12" s="11">
-        <f t="shared" si="3"/>
-        <v>111.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA12" s="165">
+        <f t="shared" si="5"/>
+        <v>41.081999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -17306,39 +18157,42 @@
         <f>-1.485+3.027</f>
         <v>1.542</v>
       </c>
-      <c r="T13" s="150">
+      <c r="T13" s="124">
         <f>-1.332+3.057</f>
         <v>1.7249999999999999</v>
       </c>
-      <c r="U13" s="150">
-        <f t="shared" ref="U13:U16" si="4">G13-T13-S13-R13</f>
+      <c r="U13" s="124">
+        <f t="shared" ref="U13:U16" si="6">G13-T13-S13-R13</f>
         <v>1.5059999999999996</v>
       </c>
-      <c r="V13" s="150">
+      <c r="V13" s="124">
         <f>-1.495+2.217</f>
         <v>0.72199999999999998</v>
       </c>
-      <c r="W13" s="150">
+      <c r="W13" s="124">
         <f>-0.537+1.965</f>
         <v>1.4279999999999999</v>
       </c>
-      <c r="X13" s="150">
+      <c r="X13" s="124">
         <f>-0.439+1.964</f>
         <v>1.5249999999999999</v>
       </c>
-      <c r="Y13" s="156">
-        <f t="shared" ref="Y13:Y16" si="5">H13-X13-W13-V13</f>
+      <c r="Y13" s="124">
+        <f t="shared" ref="Y13:Y16" si="7">H13-X13-W13-V13</f>
         <v>1.33</v>
       </c>
-      <c r="Z13" s="151">
+      <c r="Z13" s="153">
         <f>-0.431+1.758</f>
         <v>1.327</v>
       </c>
-      <c r="AA13" s="10"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA13" s="164">
+        <f>-0.588+1.777</f>
+        <v>1.1890000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -17360,32 +18214,34 @@
       <c r="S14" s="10">
         <v>0</v>
       </c>
-      <c r="T14" s="150">
+      <c r="T14" s="124">
         <v>0</v>
       </c>
-      <c r="U14" s="150">
-        <f t="shared" si="4"/>
+      <c r="U14" s="124">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V14" s="150">
+      <c r="V14" s="124">
         <v>-33.442</v>
       </c>
-      <c r="W14" s="150"/>
-      <c r="X14" s="150">
+      <c r="W14" s="124"/>
+      <c r="X14" s="124">
         <v>0</v>
       </c>
-      <c r="Y14" s="156">
-        <f t="shared" si="5"/>
+      <c r="Y14" s="124">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="151">
+      <c r="Z14" s="153">
         <v>0</v>
       </c>
-      <c r="AA14" s="10"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA14" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -17410,34 +18266,36 @@
       <c r="S15" s="10">
         <v>-1.2E-2</v>
       </c>
-      <c r="T15" s="150">
+      <c r="T15" s="124">
         <v>2E-3</v>
       </c>
-      <c r="U15" s="150">
-        <f t="shared" si="4"/>
+      <c r="U15" s="124">
+        <f t="shared" si="6"/>
         <v>-0.24700000000000003</v>
       </c>
-      <c r="V15" s="150">
+      <c r="V15" s="124">
         <v>0.19600000000000001</v>
       </c>
-      <c r="W15" s="150">
+      <c r="W15" s="124">
         <v>-6.3E-2</v>
       </c>
-      <c r="X15" s="150">
+      <c r="X15" s="124">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="Y15" s="156">
-        <f t="shared" si="5"/>
+      <c r="Y15" s="124">
+        <f t="shared" si="7"/>
         <v>0.84899999999999998</v>
       </c>
-      <c r="Z15" s="151">
+      <c r="Z15" s="153">
         <v>-0.39800000000000002</v>
       </c>
-      <c r="AA15" s="10"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA15" s="164">
+        <v>7.8940000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -17459,32 +18317,34 @@
       <c r="S16" s="10">
         <v>0.16400000000000001</v>
       </c>
-      <c r="T16" s="150">
+      <c r="T16" s="124">
         <v>-0.25700000000000001</v>
       </c>
-      <c r="U16" s="150">
-        <f t="shared" si="4"/>
+      <c r="U16" s="124">
+        <f t="shared" si="6"/>
         <v>0.23899999999999999</v>
       </c>
-      <c r="V16" s="150">
+      <c r="V16" s="124">
         <v>0.47699999999999998</v>
       </c>
-      <c r="W16" s="150">
+      <c r="W16" s="124">
         <v>-0.27200000000000002</v>
       </c>
-      <c r="X16" s="150">
+      <c r="X16" s="124">
         <v>0.20300000000000001</v>
       </c>
-      <c r="Y16" s="156">
-        <f t="shared" si="5"/>
+      <c r="Y16" s="124">
+        <f t="shared" si="7"/>
         <v>1.3210000000000002</v>
       </c>
-      <c r="Z16" s="151">
+      <c r="Z16" s="153">
         <v>0.35199999999999998</v>
       </c>
-      <c r="AA16" s="10"/>
-    </row>
-    <row r="17" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA16" s="164">
+        <v>20.491</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>129</v>
       </c>
@@ -17493,15 +18353,15 @@
         <v>0</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" ref="D17:F17" si="6">D12-SUM(D13:D16)</f>
+        <f t="shared" ref="D17:F17" si="8">D12-SUM(D13:D16)</f>
         <v>0</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G17" s="11">
@@ -17513,71 +18373,71 @@
         <v>60.353999999999935</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" ref="I17:J17" si="7">I12-SUM(I13:I16)</f>
-        <v>465.14</v>
+        <f t="shared" ref="I17:J17" si="9">I12-SUM(I13:I16)</f>
+        <v>512.11</v>
       </c>
       <c r="J17" s="11">
-        <f t="shared" si="7"/>
-        <v>548.04</v>
+        <f t="shared" si="9"/>
+        <v>591.26</v>
       </c>
       <c r="N17" s="11">
-        <f t="shared" ref="N17:AA17" si="8">N12-SUM(N13:N16)</f>
+        <f t="shared" ref="N17:AA17" si="10">N12-SUM(N13:N16)</f>
         <v>0</v>
       </c>
       <c r="O17" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P17" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q17" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R17" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-14.016999999999999</v>
       </c>
       <c r="S17" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-22.611000000000001</v>
       </c>
-      <c r="T17" s="157">
-        <f t="shared" si="8"/>
+      <c r="T17" s="129">
+        <f t="shared" si="10"/>
         <v>-12.043999999999997</v>
       </c>
       <c r="U17" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.27500000000001101</v>
       </c>
-      <c r="V17" s="157">
-        <f t="shared" si="8"/>
+      <c r="V17" s="129">
+        <f t="shared" si="10"/>
         <v>37.446000000000005</v>
       </c>
-      <c r="W17" s="157">
-        <f t="shared" si="8"/>
+      <c r="W17" s="129">
+        <f t="shared" si="10"/>
         <v>4.5759999999999827</v>
       </c>
-      <c r="X17" s="157">
-        <f t="shared" si="8"/>
+      <c r="X17" s="129">
+        <f t="shared" si="10"/>
         <v>0.83900000000001129</v>
       </c>
-      <c r="Y17" s="158">
-        <f t="shared" si="8"/>
+      <c r="Y17" s="129">
+        <f t="shared" si="10"/>
         <v>17.492999999999981</v>
       </c>
-      <c r="Z17" s="152">
-        <f t="shared" si="8"/>
+      <c r="Z17" s="154">
+        <f t="shared" si="10"/>
         <v>33.867999999999988</v>
       </c>
-      <c r="AA17" s="11">
-        <f t="shared" si="8"/>
-        <v>111.96</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AA17" s="165">
+        <f t="shared" si="10"/>
+        <v>11.507999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -17603,127 +18463,129 @@
       <c r="S18" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="T18" s="150">
+      <c r="T18" s="124">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U18" s="150">
+      <c r="U18" s="124">
         <f>G18-T18-S18-R18</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="V18" s="150">
+      <c r="V18" s="124">
         <v>3.2029999999999998</v>
       </c>
-      <c r="W18" s="150">
+      <c r="W18" s="124">
         <v>-1.782</v>
       </c>
-      <c r="X18" s="150">
+      <c r="X18" s="124">
         <v>0.373</v>
       </c>
-      <c r="Y18" s="156">
+      <c r="Y18" s="124">
         <f>H18-X18-W18-V18</f>
         <v>0.68699999999999983</v>
       </c>
-      <c r="Z18" s="151">
+      <c r="Z18" s="153">
         <v>5.056</v>
       </c>
-      <c r="AA18" s="10"/>
-    </row>
-    <row r="19" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA18" s="164">
+        <v>2.468</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11">
-        <f>C17-SUM(C18:C18)</f>
+        <f t="shared" ref="C19:J19" si="11">C17-SUM(C18:C18)</f>
         <v>0</v>
       </c>
       <c r="D19" s="11">
-        <f>D17-SUM(D18:D18)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E19" s="11">
-        <f>E17-SUM(E18:E18)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <f>F17-SUM(F18:F18)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <f>G17-SUM(G18:G18)</f>
+        <f t="shared" si="11"/>
         <v>-48.516999999999989</v>
       </c>
       <c r="H19" s="14">
-        <f>H17-SUM(H18:H18)</f>
+        <f t="shared" si="11"/>
         <v>57.872999999999934</v>
       </c>
       <c r="I19" s="11">
-        <f>I17-SUM(I18:I18)</f>
-        <v>465.14</v>
+        <f t="shared" si="11"/>
+        <v>512.11</v>
       </c>
       <c r="J19" s="11">
-        <f>J17-SUM(J18:J18)</f>
-        <v>548.04</v>
+        <f t="shared" si="11"/>
+        <v>591.26</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" ref="N19:AA19" si="9">N17-SUM(N18:N18)</f>
+        <f t="shared" ref="N19:AA19" si="12">N17-SUM(N18:N18)</f>
         <v>0</v>
       </c>
       <c r="O19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-14.024999999999999</v>
       </c>
       <c r="S19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-22.618000000000002</v>
       </c>
-      <c r="T19" s="157">
-        <f t="shared" si="9"/>
+      <c r="T19" s="129">
+        <f t="shared" si="12"/>
         <v>-12.052999999999997</v>
       </c>
       <c r="U19" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.17900000000001101</v>
       </c>
-      <c r="V19" s="157">
-        <f t="shared" si="9"/>
+      <c r="V19" s="129">
+        <f t="shared" si="12"/>
         <v>34.243000000000002</v>
       </c>
-      <c r="W19" s="157">
-        <f t="shared" si="9"/>
+      <c r="W19" s="129">
+        <f t="shared" si="12"/>
         <v>6.3579999999999828</v>
       </c>
-      <c r="X19" s="157">
-        <f t="shared" si="9"/>
+      <c r="X19" s="129">
+        <f t="shared" si="12"/>
         <v>0.46600000000001129</v>
       </c>
-      <c r="Y19" s="158">
-        <f t="shared" si="9"/>
+      <c r="Y19" s="129">
+        <f t="shared" si="12"/>
         <v>16.80599999999998</v>
       </c>
-      <c r="Z19" s="152">
-        <f t="shared" si="9"/>
+      <c r="Z19" s="154">
+        <f t="shared" si="12"/>
         <v>28.811999999999987</v>
       </c>
-      <c r="AA19" s="11">
-        <f t="shared" si="9"/>
-        <v>111.96</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AA19" s="165">
+        <f t="shared" si="12"/>
+        <v>9.0399999999999956</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -17747,30 +18609,32 @@
       <c r="S20" s="10">
         <v>11.850151</v>
       </c>
-      <c r="T20" s="150">
+      <c r="T20" s="124">
         <v>11.96078</v>
       </c>
-      <c r="U20" s="150">
+      <c r="U20" s="124">
         <v>11.96078</v>
       </c>
-      <c r="V20" s="150">
+      <c r="V20" s="124">
         <v>13.182517000000001</v>
       </c>
-      <c r="W20" s="150">
+      <c r="W20" s="124">
         <v>13.543647999999999</v>
       </c>
-      <c r="X20" s="150">
+      <c r="X20" s="124">
         <v>13.932651999999999</v>
       </c>
-      <c r="Y20" s="150">
+      <c r="Y20" s="124">
         <v>13.932651999999999</v>
       </c>
-      <c r="Z20" s="151">
+      <c r="Z20" s="153">
         <v>14.646526</v>
       </c>
-      <c r="AA20" s="10"/>
-    </row>
-    <row r="21" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA20" s="164">
+        <v>14.554218000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -17795,75 +18659,75 @@
         <v>-4.0652051635319824</v>
       </c>
       <c r="H21" s="35">
-        <f t="shared" ref="H21:J21" si="10">H19/H20</f>
+        <f t="shared" ref="H21:J21" si="13">H19/H20</f>
         <v>4.186844397088759</v>
       </c>
       <c r="I21" s="2" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J21" s="2" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="2" t="e">
-        <f t="shared" ref="N21:T21" si="11">N19/N20</f>
+        <f t="shared" ref="N21:T21" si="14">N19/N20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.1870053509608776</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.9086676617032139</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.007710199502039</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" ref="U21:X21" si="12">U19/U20</f>
+        <f t="shared" ref="U21:X21" si="15">U19/U20</f>
         <v>1.496557916791472E-2</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.5976071185798584</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.46944515982695234</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.3446611599859906E-2</v>
       </c>
-      <c r="Y21" s="146">
+      <c r="Y21" s="2">
         <f>Y19/Y20</f>
         <v>1.2062312329339726</v>
       </c>
-      <c r="Z21" s="35">
-        <f t="shared" ref="Y21:AA21" si="13">Z19/Z20</f>
+      <c r="Z21" s="156">
+        <f t="shared" ref="Z21:AA21" si="16">Z19/Z20</f>
         <v>1.9671558975828116</v>
       </c>
-      <c r="AA21" s="2" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA21" s="35">
+        <f t="shared" si="16"/>
+        <v>0.62112577948193404</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>56</v>
       </c>
@@ -17874,10 +18738,10 @@
       <c r="G22" s="2"/>
       <c r="H22" s="123"/>
       <c r="I22" s="43">
-        <v>8.52</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>9.5399999999999991</v>
+        <v>11.64</v>
       </c>
       <c r="N22" s="44"/>
       <c r="O22" s="44"/>
@@ -17890,16 +18754,19 @@
       <c r="V22" s="44"/>
       <c r="W22" s="44"/>
       <c r="X22" s="44"/>
-      <c r="Y22" s="155"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="44">
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="157"/>
+      <c r="AA22" s="118">
         <v>1.94</v>
       </c>
       <c r="AB22" s="1">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -17928,164 +18795,164 @@
         <v>9.9721674791688086E-2</v>
       </c>
       <c r="I23" s="39">
-        <f t="shared" ref="I23:J23" si="14">I12/I5</f>
+        <f t="shared" ref="I23:J23" si="17">I12/I5</f>
         <v>1</v>
       </c>
       <c r="J23" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="N23" s="39" t="e">
-        <f t="shared" ref="N23:AA23" si="15">N12/N5</f>
+        <f t="shared" ref="N23:AA23" si="18">N12/N5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="39" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="39" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="39" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-0.2118178115666576</v>
       </c>
       <c r="S23" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-0.34158569445578513</v>
       </c>
       <c r="T23" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-0.16067222804698297</v>
       </c>
       <c r="U23" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.4248143437410389E-2</v>
       </c>
       <c r="V23" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7.3326089909004494E-2</v>
       </c>
       <c r="W23" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7.0759014940649095E-2</v>
       </c>
       <c r="X23" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.7570846262798942E-2</v>
       </c>
       <c r="Y23" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.20818127727092406</v>
       </c>
       <c r="Z23" s="39">
         <f>Z12/Z5</f>
         <v>0.3255169986756683</v>
       </c>
-      <c r="AA23" s="39">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AA23" s="6">
+        <f>AA12/AA5</f>
+        <v>0.31180127052073131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="4" t="e">
-        <f>C19/C5</f>
+        <f t="shared" ref="C24:J24" si="19">C19/C5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D24" s="4" t="e">
-        <f>D19/D5</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="4" t="e">
-        <f>E19/E5</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="4" t="e">
-        <f>F19/F5</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="4">
-        <f>G19/G5</f>
+        <f t="shared" si="19"/>
         <v>-0.18725708529369758</v>
       </c>
       <c r="H24" s="7">
-        <f>H19/H5</f>
+        <f t="shared" si="19"/>
         <v>0.16674445942675362</v>
       </c>
       <c r="I24" s="4">
-        <f>I19/I5</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="J24" s="4">
-        <f>J19/J5</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="N24" s="4" t="e">
-        <f>N19/N5</f>
+        <f t="shared" ref="N24:AA24" si="20">N19/N5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="4" t="e">
-        <f>O19/O5</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="4" t="e">
-        <f>P19/P5</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="4" t="e">
-        <f>Q19/Q5</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="4">
-        <f>R19/R5</f>
+        <f t="shared" si="20"/>
         <v>-0.23800230790116753</v>
       </c>
       <c r="S24" s="4">
-        <f>S19/S5</f>
+        <f t="shared" si="20"/>
         <v>-0.36936392585939415</v>
       </c>
       <c r="T24" s="4">
-        <f>T19/T5</f>
+        <f t="shared" si="20"/>
         <v>-0.18314567473522658</v>
       </c>
       <c r="U24" s="4">
-        <f>U19/U5</f>
+        <f t="shared" si="20"/>
         <v>2.4480641146625501E-3</v>
       </c>
       <c r="V24" s="4">
-        <f>V19/V5</f>
+        <f t="shared" si="20"/>
         <v>0.4650685861741139</v>
       </c>
       <c r="W24" s="4">
-        <f>W19/W5</f>
+        <f t="shared" si="20"/>
         <v>7.9358937553827322E-2</v>
       </c>
       <c r="X24" s="4">
-        <f>X19/X5</f>
+        <f t="shared" si="20"/>
         <v>5.0384370033194356E-3</v>
       </c>
-      <c r="Y24" s="147">
-        <f>Y19/Y5</f>
+      <c r="Y24" s="4">
+        <f t="shared" si="20"/>
         <v>0.16666005553351826</v>
       </c>
-      <c r="Z24" s="7">
+      <c r="Z24" s="158">
         <f>Z19/Z5</f>
         <v>0.26682966132303493</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AA24" s="7">
         <f>AA19/AA5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+        <v>6.8611155384533606E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>133</v>
       </c>
@@ -18112,11 +18979,11 @@
       </c>
       <c r="I25" s="39">
         <f>I6/H5-1</f>
-        <v>0.34016757136765441</v>
+        <v>0.47549816178589155</v>
       </c>
       <c r="J25" s="39">
         <f>J6/I6-1</f>
-        <v>0.17822591047856551</v>
+        <v>0.15455663822225696</v>
       </c>
       <c r="N25" s="4" t="e">
         <f>N5/#REF!-1</f>
@@ -18135,237 +19002,241 @@
         <v>#REF!</v>
       </c>
       <c r="R25" s="4" t="e">
-        <f>R5/N5-1</f>
+        <f t="shared" ref="R25:Z25" si="21">R5/N5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="4" t="e">
-        <f>S5/O5-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T25" s="4" t="e">
-        <f>T5/P5-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U25" s="4" t="e">
-        <f>U5/Q5-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V25" s="4">
-        <f>V5/R5-1</f>
+        <f t="shared" si="21"/>
         <v>0.24949090415422215</v>
       </c>
       <c r="W25" s="4">
-        <f>W5/S5-1</f>
+        <f t="shared" si="21"/>
         <v>0.30835306605699331</v>
       </c>
       <c r="X25" s="4">
-        <f>X5/T5-1</f>
+        <f t="shared" si="21"/>
         <v>0.40537296196684447</v>
       </c>
-      <c r="Y25" s="147">
-        <f>Y5/U5-1</f>
+      <c r="Y25" s="4">
+        <f t="shared" si="21"/>
         <v>0.37912170571260528</v>
       </c>
-      <c r="Z25" s="7">
-        <f>Z5/V5-1</f>
+      <c r="Z25" s="158">
+        <f t="shared" si="21"/>
         <v>0.46650821675947318</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AA25" s="7">
         <f>AA6/W5-1</f>
         <v>0.39745622027784377</v>
       </c>
       <c r="AB25" s="4">
         <f>AB6/X5-1</f>
-        <v>0.28761258095557318</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+        <v>0.44341489258182043</v>
+      </c>
+      <c r="AC25" s="4">
+        <f>AC6/Y5-1</f>
+        <v>0.37812376041253493</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="4" t="e">
-        <f>C9/C5</f>
+        <f t="shared" ref="C26:J26" si="22">C9/C5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D26" s="4" t="e">
-        <f>D9/D5</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="4" t="e">
-        <f>E9/E5</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="4" t="e">
-        <f>F9/F5</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G26" s="4">
-        <f>G9/G5</f>
+        <f t="shared" si="22"/>
         <v>0.18677463304682101</v>
       </c>
       <c r="H26" s="7">
-        <f>H9/H5</f>
+        <f t="shared" si="22"/>
         <v>0.12937800366490337</v>
       </c>
       <c r="I26" s="4">
-        <f>I9/I5</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <f>J9/J5</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N26" s="4" t="e">
-        <f>N9/N5</f>
+        <f t="shared" ref="N26:AA26" si="23">N9/N5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="4" t="e">
-        <f>O9/O5</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="4" t="e">
-        <f>P9/P5</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="4" t="e">
-        <f>Q9/Q5</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="4">
-        <f>R9/R5</f>
+        <f t="shared" si="23"/>
         <v>0.16072155851208256</v>
       </c>
       <c r="S26" s="4">
-        <f>S9/S5</f>
+        <f t="shared" si="23"/>
         <v>0.24471299093655588</v>
       </c>
       <c r="T26" s="4">
-        <f>T9/T5</f>
+        <f t="shared" si="23"/>
         <v>0.21142362219081914</v>
       </c>
       <c r="U26" s="4">
-        <f>U9/U5</f>
+        <f t="shared" si="23"/>
         <v>0.1370642377494222</v>
       </c>
       <c r="V26" s="4">
-        <f>V9/V5</f>
+        <f t="shared" si="23"/>
         <v>0.12355018334917832</v>
       </c>
       <c r="W26" s="4">
-        <f>W9/W5</f>
+        <f t="shared" si="23"/>
         <v>0.13409139134016504</v>
       </c>
       <c r="X26" s="4">
-        <f>X9/X5</f>
+        <f t="shared" si="23"/>
         <v>0.13516201926715607</v>
       </c>
-      <c r="Y26" s="147">
-        <f>Y9/Y5</f>
+      <c r="Y26" s="4">
+        <f t="shared" si="23"/>
         <v>0.1245834986116621</v>
       </c>
-      <c r="Z26" s="7">
-        <f>Z9/Z5</f>
+      <c r="Z26" s="158">
+        <f t="shared" si="23"/>
         <v>9.5527834115892898E-2</v>
       </c>
-      <c r="AA26" s="4">
-        <f>AA9/AA5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AA26" s="7">
+        <f t="shared" si="23"/>
+        <v>0.11730686035656548</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="4" t="e">
-        <f>C10/C5</f>
+        <f t="shared" ref="C27:J27" si="24">C10/C5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D27" s="4" t="e">
-        <f>D10/D5</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="4" t="e">
-        <f>E10/E5</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="4" t="e">
-        <f>F10/F5</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="4">
-        <f>G10/G5</f>
+        <f t="shared" si="24"/>
         <v>0.36631634200846797</v>
       </c>
       <c r="H27" s="7">
-        <f>H10/H5</f>
+        <f t="shared" si="24"/>
         <v>0.308370500985375</v>
       </c>
       <c r="I27" s="4">
-        <f>I10/I5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <f>J10/J5</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N27" s="4" t="e">
-        <f>N10/N5</f>
+        <f t="shared" ref="N27:AA27" si="25">N10/N5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="4" t="e">
-        <f>O10/O5</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="4" t="e">
-        <f>P10/P5</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="4" t="e">
-        <f>Q10/Q5</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="4">
-        <f>R10/R5</f>
+        <f t="shared" si="25"/>
         <v>0.41350461580233511</v>
       </c>
       <c r="S27" s="4">
-        <f>S10/S5</f>
+        <f t="shared" si="25"/>
         <v>0.39082224218175876</v>
       </c>
       <c r="T27" s="4">
-        <f>T10/T5</f>
+        <f t="shared" si="25"/>
         <v>0.3507164455790065</v>
       </c>
       <c r="U27" s="4">
-        <f>U10/U5</f>
+        <f t="shared" si="25"/>
         <v>0.32180418222349855</v>
       </c>
       <c r="V27" s="4">
-        <f>V10/V5</f>
+        <f t="shared" si="25"/>
         <v>0.33345103897867717</v>
       </c>
       <c r="W27" s="4">
-        <f>W10/W5</f>
+        <f t="shared" si="25"/>
         <v>0.30598998964015134</v>
       </c>
       <c r="X27" s="4">
-        <f>X10/X5</f>
+        <f t="shared" si="25"/>
         <v>0.33261252689509024</v>
       </c>
-      <c r="Y27" s="147">
-        <f>Y10/Y5</f>
+      <c r="Y27" s="4">
+        <f t="shared" si="25"/>
         <v>0.26971439904799688</v>
       </c>
-      <c r="Z27" s="7">
-        <f>Z10/Z5</f>
+      <c r="Z27" s="158">
+        <f t="shared" si="25"/>
         <v>0.25477176117578421</v>
       </c>
-      <c r="AA27" s="4">
-        <f>AA10/AA5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AA27" s="7">
+        <f t="shared" si="25"/>
+        <v>0.20059655274482568</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>128</v>
       </c>
@@ -18388,38 +19259,38 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
-      <c r="Y28" s="147"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="4"/>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="7"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>125</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="e">
-        <f>E3/D3-1</f>
+        <f t="shared" ref="E29:J30" si="26">E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="4" t="e">
-        <f>F3/E3-1</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="4" t="e">
-        <f>G3/F3-1</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="7">
-        <f>H3/G3-1</f>
+        <f t="shared" si="26"/>
         <v>0.34096046778992495</v>
       </c>
       <c r="I29" s="4">
-        <f>I3/H3-1</f>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="J29" s="4" t="e">
-        <f>J3/I3-1</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="4"/>
@@ -18433,38 +19304,38 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="147"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="4"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="158"/>
+      <c r="AA29" s="7"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>126</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="e">
-        <f>E4/D4-1</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="4" t="e">
-        <f>F4/E4-1</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="4" t="e">
-        <f>G4/F4-1</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="7">
-        <f>H4/G4-1</f>
+        <f t="shared" si="26"/>
         <v>0.32764784746015185</v>
       </c>
       <c r="I30" s="4">
-        <f>I4/H4-1</f>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="J30" s="4" t="e">
-        <f>J4/I4-1</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="4"/>
@@ -18478,11 +19349,11 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="147"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="4"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="158"/>
+      <c r="AA30" s="7"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>132</v>
       </c>
@@ -18504,16 +19375,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" ref="H31:J31" si="16">H21/G21-1</f>
+        <f t="shared" ref="H31" si="27">H21/G21-1</f>
         <v>-2.0299220405031395</v>
       </c>
       <c r="I31" s="39">
         <f>I22/H21-1</f>
-        <v>1.0349454605774735</v>
+        <v>1.39798737373214</v>
       </c>
       <c r="J31" s="39">
         <f>J22/I22-1</f>
-        <v>0.11971830985915499</v>
+        <v>0.15936254980079689</v>
       </c>
       <c r="N31" s="4" t="e">
         <f>N19/#REF!-1</f>
@@ -18532,7 +19403,7 @@
         <v>#REF!</v>
       </c>
       <c r="R31" s="4" t="e">
-        <f t="shared" ref="R31:T31" si="17">R19/N19-1</f>
+        <f t="shared" ref="R31:T31" si="28">R19/N19-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="4" t="e">
@@ -18540,76 +19411,80 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="4" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="4" t="e">
-        <f t="shared" ref="U31" si="18">U19/Q19-1</f>
+        <f t="shared" ref="U31" si="29">U19/Q19-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V31" s="4">
-        <f t="shared" ref="V31" si="19">V19/R19-1</f>
+        <f t="shared" ref="V31" si="30">V19/R19-1</f>
         <v>-3.4415686274509807</v>
       </c>
       <c r="W31" s="4">
-        <f t="shared" ref="W31" si="20">W19/S19-1</f>
+        <f t="shared" ref="W31" si="31">W19/S19-1</f>
         <v>-1.2811035458484386</v>
       </c>
       <c r="X31" s="4">
         <f>X21/T21-1</f>
         <v>-1.0331907046454303</v>
       </c>
-      <c r="Y31" s="147">
+      <c r="Y31" s="4">
         <f>Y21/U21-1</f>
         <v>79.600370984643092</v>
       </c>
-      <c r="Z31" s="7">
+      <c r="Z31" s="158">
         <f>Z21/V21-1</f>
         <v>-0.24270460936437599</v>
       </c>
-      <c r="AA31" s="4">
+      <c r="AA31" s="7">
         <f>AA22/W21-1</f>
         <v>3.1325380811576071</v>
       </c>
       <c r="AB31" s="4">
         <f>AB22/X21-1</f>
-        <v>55.806950214590891</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+        <v>72.849035278968174</v>
+      </c>
+      <c r="AC31" s="4">
+        <f>AC22/Y21-1</f>
+        <v>1.2549573628466053</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="46" t="e">
-        <f>C13/C5</f>
+        <f t="shared" ref="C32:J32" si="32">C13/C5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="46" t="e">
-        <f>D13/D5</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="46" t="e">
-        <f>E13/E5</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="46" t="e">
-        <f>F13/F5</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G32" s="46">
-        <f>G13/G5</f>
+        <f t="shared" si="32"/>
         <v>2.500646486010814E-2</v>
       </c>
       <c r="H32" s="47">
-        <f>H13/H5</f>
+        <f t="shared" si="32"/>
         <v>1.4420472749484265E-2</v>
       </c>
       <c r="I32" s="46">
-        <f>I13/I5</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J32" s="46">
-        <f>J13/J5</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N32" s="4"/>
@@ -18623,44 +19498,44 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="147"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="158"/>
+      <c r="AA32" s="7"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="48" t="e">
-        <f>-C13/C12</f>
+        <f t="shared" ref="C33:J33" si="33">-C13/C12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D33" s="48" t="e">
-        <f>-D13/D12</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E33" s="48" t="e">
-        <f>-E13/E12</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="48" t="e">
-        <f>-F13/F12</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G33" s="46">
-        <f>-G13/G12</f>
+        <f t="shared" si="33"/>
         <v>0.15353080568720381</v>
       </c>
       <c r="H33" s="47">
-        <f>-H13/H12</f>
+        <f t="shared" si="33"/>
         <v>-0.14460720580162403</v>
       </c>
       <c r="I33" s="46">
-        <f>-I13/I12</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J33" s="46">
-        <f>-J13/J12</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N33" s="4"/>
@@ -18674,101 +19549,101 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
-      <c r="Y33" s="147"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="158"/>
+      <c r="AA33" s="7"/>
     </row>
     <row r="36" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="11">
-        <f t="shared" ref="C36" si="21">C37+C38-C61-C51</f>
+        <f t="shared" ref="C36" si="34">C37+C38-C61-C51</f>
         <v>0</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" ref="D36" si="22">D37+D38-D61-D51</f>
+        <f t="shared" ref="D36" si="35">D37+D38-D61-D51</f>
         <v>0</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" ref="E36" si="23">E37+E38-E61-E51</f>
+        <f t="shared" ref="E36" si="36">E37+E38-E61-E51</f>
         <v>0</v>
       </c>
       <c r="F36" s="11">
-        <f t="shared" ref="F36" si="24">F37+F38-F61-F51</f>
+        <f t="shared" ref="F36" si="37">F37+F38-F61-F51</f>
         <v>0</v>
       </c>
       <c r="G36" s="11">
-        <f t="shared" ref="G36:J36" si="25">G37+G38-G61-G51</f>
+        <f t="shared" ref="G36:J36" si="38">G37+G38-G61-G51</f>
         <v>37.097000000000001</v>
       </c>
       <c r="H36" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>40.015000000000001</v>
       </c>
       <c r="I36" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J36" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" ref="N36:X36" si="26">N37+N38-N61-N51</f>
+        <f t="shared" ref="N36:X36" si="39">N37+N38-N61-N51</f>
         <v>0</v>
       </c>
       <c r="O36" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P36" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q36" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R36" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S36" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T36" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>37.097000000000001</v>
       </c>
       <c r="V36" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>44.923000000000002</v>
       </c>
       <c r="W36" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>36.384</v>
       </c>
       <c r="X36" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>23.356999999999996</v>
       </c>
-      <c r="Y36" s="144">
-        <f t="shared" ref="Y36:AA36" si="27">Y37+Y38-Y61-Y51</f>
+      <c r="Y36" s="11">
+        <f t="shared" ref="Y36:AA36" si="40">Y37+Y38-Y61-Y51</f>
         <v>40.015000000000001</v>
       </c>
-      <c r="Z36" s="14">
-        <f t="shared" si="27"/>
+      <c r="Z36" s="159">
+        <f t="shared" si="40"/>
         <v>37.433000000000007</v>
       </c>
-      <c r="AA36" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
+      <c r="AA36" s="14">
+        <f t="shared" si="40"/>
+        <v>50.412999999999997</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
@@ -18779,10 +19654,10 @@
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="153">
+      <c r="G37" s="127">
         <v>41.759</v>
       </c>
-      <c r="H37" s="151">
+      <c r="H37" s="125">
         <v>49.718000000000004</v>
       </c>
       <c r="N37" s="10"/>
@@ -18805,27 +19680,29 @@
       <c r="X37" s="10">
         <v>35.058999999999997</v>
       </c>
-      <c r="Y37" s="145">
+      <c r="Y37" s="10">
         <f>H37</f>
         <v>49.718000000000004</v>
       </c>
-      <c r="Z37" s="15">
+      <c r="Z37" s="160">
         <v>47.002000000000002</v>
       </c>
-      <c r="AA37" s="10"/>
+      <c r="AA37" s="15">
+        <v>61.686999999999998</v>
+      </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="153">
+      <c r="G38" s="127">
         <v>0.95199999999999996</v>
       </c>
-      <c r="H38" s="151">
+      <c r="H38" s="125">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="N38" s="10"/>
@@ -18836,7 +19713,7 @@
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10">
-        <f t="shared" ref="U38:U42" si="28">G38</f>
+        <f t="shared" ref="U38:U42" si="41">G38</f>
         <v>0.95199999999999996</v>
       </c>
       <c r="V38" s="10">
@@ -18848,27 +19725,29 @@
       <c r="X38" s="10">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="Y38" s="145">
-        <f t="shared" ref="Y38:Y42" si="29">H38</f>
+      <c r="Y38" s="10">
+        <f t="shared" ref="Y38:Y42" si="42">H38</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="Z38" s="15">
+      <c r="Z38" s="160">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="AA38" s="10"/>
+      <c r="AA38" s="15">
+        <v>9.9000000000000005E-2</v>
+      </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="153">
+      <c r="G39" s="127">
         <v>112.846</v>
       </c>
-      <c r="H39" s="151">
+      <c r="H39" s="125">
         <v>175.857</v>
       </c>
       <c r="N39" s="10"/>
@@ -18879,7 +19758,7 @@
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>112.846</v>
       </c>
       <c r="V39" s="10">
@@ -18891,27 +19770,29 @@
       <c r="X39" s="10">
         <v>165.53299999999999</v>
       </c>
-      <c r="Y39" s="145">
-        <f t="shared" si="29"/>
+      <c r="Y39" s="10">
+        <f t="shared" si="42"/>
         <v>175.857</v>
       </c>
-      <c r="Z39" s="15">
+      <c r="Z39" s="160">
         <v>194.672</v>
       </c>
-      <c r="AA39" s="10"/>
+      <c r="AA39" s="15">
+        <v>225.66200000000001</v>
+      </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="153">
+      <c r="G40" s="127">
         <v>113.226</v>
       </c>
-      <c r="H40" s="151">
+      <c r="H40" s="125">
         <v>40.472999999999999</v>
       </c>
       <c r="N40" s="10"/>
@@ -18922,7 +19803,7 @@
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>113.226</v>
       </c>
       <c r="V40" s="10">
@@ -18934,27 +19815,29 @@
       <c r="X40" s="10">
         <v>39.996000000000002</v>
       </c>
-      <c r="Y40" s="145">
-        <f t="shared" si="29"/>
+      <c r="Y40" s="10">
+        <f t="shared" si="42"/>
         <v>40.472999999999999</v>
       </c>
-      <c r="Z40" s="15">
+      <c r="Z40" s="160">
         <v>40.976999999999997</v>
       </c>
-      <c r="AA40" s="10"/>
+      <c r="AA40" s="15">
+        <v>41.067</v>
+      </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="153">
+      <c r="G41" s="127">
         <v>0.14799999999999999</v>
       </c>
-      <c r="H41" s="151">
+      <c r="H41" s="125">
         <v>0</v>
       </c>
       <c r="N41" s="10"/>
@@ -18965,7 +19848,7 @@
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.14799999999999999</v>
       </c>
       <c r="V41" s="10">
@@ -18977,27 +19860,29 @@
       <c r="X41" s="10">
         <v>0</v>
       </c>
-      <c r="Y41" s="145">
-        <f t="shared" si="29"/>
+      <c r="Y41" s="10">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="15">
+      <c r="Z41" s="160">
         <v>0</v>
       </c>
-      <c r="AA41" s="10"/>
+      <c r="AA41" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="153">
+      <c r="G42" s="127">
         <v>7.9550000000000001</v>
       </c>
-      <c r="H42" s="151">
+      <c r="H42" s="125">
         <v>16.126999999999999</v>
       </c>
       <c r="N42" s="10"/>
@@ -19008,7 +19893,7 @@
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>7.9550000000000001</v>
       </c>
       <c r="V42" s="10">
@@ -19020,25 +19905,27 @@
       <c r="X42" s="10">
         <v>13.986000000000001</v>
       </c>
-      <c r="Y42" s="145">
-        <f t="shared" si="29"/>
+      <c r="Y42" s="10">
+        <f t="shared" si="42"/>
         <v>16.126999999999999</v>
       </c>
-      <c r="Z42" s="15">
+      <c r="Z42" s="160">
         <v>16.035</v>
       </c>
-      <c r="AA42" s="10"/>
+      <c r="AA42" s="15">
+        <v>17.853999999999999</v>
+      </c>
     </row>
     <row r="43" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C43" s="11">
-        <f t="shared" ref="C43:D43" si="30">SUM(C37:C42)</f>
+        <f t="shared" ref="C43:D43" si="43">SUM(C37:C42)</f>
         <v>0</v>
       </c>
       <c r="D43" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E43" s="11">
@@ -19046,80 +19933,80 @@
         <v>0</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" ref="F43:G43" si="31">SUM(F37:F42)</f>
+        <f t="shared" ref="F43:G43" si="44">SUM(F37:F42)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="154">
-        <f t="shared" si="31"/>
+      <c r="G43" s="128">
+        <f t="shared" si="44"/>
         <v>276.88600000000002</v>
       </c>
-      <c r="H43" s="152">
-        <f t="shared" ref="H43:J43" si="32">SUM(H37:H42)</f>
+      <c r="H43" s="126">
+        <f t="shared" ref="H43:J43" si="45">SUM(H37:H42)</f>
         <v>282.27199999999999</v>
       </c>
       <c r="I43" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="J43" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" ref="N43:T43" si="33">SUM(N37:N42)</f>
+        <f t="shared" ref="N43:T43" si="46">SUM(N37:N42)</f>
         <v>0</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="P43" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Q43" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="R43" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="S43" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="T43" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="U43" s="11">
-        <f t="shared" ref="U43:X43" si="34">SUM(U37:U42)</f>
+        <f t="shared" ref="U43:X43" si="47">SUM(U37:U42)</f>
         <v>276.88600000000002</v>
       </c>
       <c r="V43" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>218.44</v>
       </c>
       <c r="W43" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>229.51200000000003</v>
       </c>
       <c r="X43" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>254.67</v>
       </c>
-      <c r="Y43" s="144">
-        <f t="shared" ref="Y43:AA43" si="35">SUM(Y37:Y42)</f>
+      <c r="Y43" s="11">
+        <f t="shared" ref="Y43:AA43" si="48">SUM(Y37:Y42)</f>
         <v>282.27199999999999</v>
       </c>
-      <c r="Z43" s="14">
-        <f t="shared" si="35"/>
+      <c r="Z43" s="159">
+        <f t="shared" si="48"/>
         <v>298.78399999999999</v>
       </c>
-      <c r="AA43" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
+      <c r="AA43" s="14">
+        <f t="shared" si="48"/>
+        <v>346.36899999999997</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
@@ -19130,10 +20017,10 @@
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="153">
+      <c r="G44" s="127">
         <v>1.1180000000000001</v>
       </c>
-      <c r="H44" s="151">
+      <c r="H44" s="125">
         <v>0.70399999999999996</v>
       </c>
       <c r="I44" s="10"/>
@@ -19146,7 +20033,7 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10">
-        <f t="shared" ref="U44:U49" si="36">G44</f>
+        <f t="shared" ref="U44:U49" si="49">G44</f>
         <v>1.1180000000000001</v>
       </c>
       <c r="V44" s="10">
@@ -19158,27 +20045,29 @@
       <c r="X44" s="10">
         <v>0.81</v>
       </c>
-      <c r="Y44" s="145">
-        <f t="shared" ref="Y44:Y49" si="37">H44</f>
+      <c r="Y44" s="10">
+        <f t="shared" ref="Y44:Y49" si="50">H44</f>
         <v>0.70399999999999996</v>
       </c>
-      <c r="Z44" s="15">
+      <c r="Z44" s="160">
         <v>0.62</v>
       </c>
-      <c r="AA44" s="10"/>
+      <c r="AA44" s="15">
+        <v>0.59099999999999997</v>
+      </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="153">
+      <c r="G45" s="127">
         <v>0.77300000000000002</v>
       </c>
-      <c r="H45" s="151">
+      <c r="H45" s="125">
         <v>0.50700000000000001</v>
       </c>
       <c r="I45" s="10"/>
@@ -19191,7 +20080,7 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0.77300000000000002</v>
       </c>
       <c r="V45" s="10">
@@ -19203,14 +20092,16 @@
       <c r="X45" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Y45" s="145">
-        <f t="shared" si="37"/>
+      <c r="Y45" s="10">
+        <f t="shared" si="50"/>
         <v>0.50700000000000001</v>
       </c>
-      <c r="Z45" s="15">
+      <c r="Z45" s="160">
         <v>0.433</v>
       </c>
-      <c r="AA45" s="10"/>
+      <c r="AA45" s="15">
+        <v>0.35599999999999998</v>
+      </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -19220,10 +20111,10 @@
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="153">
+      <c r="G46" s="127">
         <v>13.206</v>
       </c>
-      <c r="H46" s="151">
+      <c r="H46" s="125">
         <v>13.641999999999999</v>
       </c>
       <c r="I46" s="10"/>
@@ -19236,7 +20127,7 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>13.206</v>
       </c>
       <c r="V46" s="10">
@@ -19248,27 +20139,29 @@
       <c r="X46" s="10">
         <v>14.016999999999999</v>
       </c>
-      <c r="Y46" s="145">
-        <f t="shared" si="37"/>
+      <c r="Y46" s="10">
+        <f t="shared" si="50"/>
         <v>13.641999999999999</v>
       </c>
-      <c r="Z46" s="15">
+      <c r="Z46" s="160">
         <v>13.653</v>
       </c>
-      <c r="AA46" s="10"/>
+      <c r="AA46" s="15">
+        <v>13.938000000000001</v>
+      </c>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="153">
+      <c r="G47" s="127">
         <v>0.318</v>
       </c>
-      <c r="H47" s="151">
+      <c r="H47" s="125">
         <v>0.16300000000000001</v>
       </c>
       <c r="I47" s="10"/>
@@ -19281,7 +20174,7 @@
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0.318</v>
       </c>
       <c r="V47" s="10">
@@ -19293,14 +20186,16 @@
       <c r="X47" s="10">
         <v>0.20399999999999999</v>
       </c>
-      <c r="Y47" s="145">
-        <f t="shared" si="37"/>
+      <c r="Y47" s="10">
+        <f t="shared" si="50"/>
         <v>0.16300000000000001</v>
       </c>
-      <c r="Z47" s="15">
+      <c r="Z47" s="160">
         <v>0.122</v>
       </c>
-      <c r="AA47" s="10"/>
+      <c r="AA47" s="15">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="48" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -19310,10 +20205,10 @@
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="153">
+      <c r="G48" s="127">
         <v>1.319</v>
       </c>
-      <c r="H48" s="151">
+      <c r="H48" s="125">
         <v>1.659</v>
       </c>
       <c r="I48" s="10"/>
@@ -19326,7 +20221,7 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>1.319</v>
       </c>
       <c r="V48" s="10">
@@ -19338,27 +20233,29 @@
       <c r="X48" s="10">
         <v>1.546</v>
       </c>
-      <c r="Y48" s="145">
-        <f t="shared" si="37"/>
+      <c r="Y48" s="10">
+        <f t="shared" si="50"/>
         <v>1.659</v>
       </c>
-      <c r="Z48" s="15">
+      <c r="Z48" s="160">
         <v>1.659</v>
       </c>
-      <c r="AA48" s="10"/>
+      <c r="AA48" s="15">
+        <v>1.841</v>
+      </c>
     </row>
     <row r="49" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="153">
+      <c r="G49" s="127">
         <v>0.40300000000000002</v>
       </c>
-      <c r="H49" s="151">
+      <c r="H49" s="125">
         <v>0.38</v>
       </c>
       <c r="I49" s="10"/>
@@ -19371,7 +20268,7 @@
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0.40300000000000002</v>
       </c>
       <c r="V49" s="10">
@@ -19383,14 +20280,16 @@
       <c r="X49" s="10">
         <v>0.41499999999999998</v>
       </c>
-      <c r="Y49" s="145">
-        <f t="shared" si="37"/>
+      <c r="Y49" s="10">
+        <f t="shared" si="50"/>
         <v>0.38</v>
       </c>
-      <c r="Z49" s="15">
+      <c r="Z49" s="160">
         <v>0.38400000000000001</v>
       </c>
-      <c r="AA49" s="10"/>
+      <c r="AA49" s="15">
+        <v>0.38800000000000001</v>
+      </c>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
@@ -19412,77 +20311,77 @@
         <f>SUM(F43:F49)</f>
         <v>0</v>
       </c>
-      <c r="G50" s="154">
+      <c r="G50" s="128">
         <f>SUM(G43:G49)</f>
         <v>294.02300000000008</v>
       </c>
-      <c r="H50" s="152">
-        <f t="shared" ref="H50:J50" si="38">SUM(H43:H49)</f>
+      <c r="H50" s="126">
+        <f t="shared" ref="H50:J50" si="51">SUM(H43:H49)</f>
         <v>299.327</v>
       </c>
       <c r="I50" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="J50" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" ref="N50:T50" si="39">SUM(N43:N49)</f>
+        <f t="shared" ref="N50:T50" si="52">SUM(N43:N49)</f>
         <v>0</v>
       </c>
       <c r="O50" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="P50" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q50" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="R50" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="S50" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T50" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="U50" s="11">
-        <f t="shared" ref="U50:X50" si="40">SUM(U43:U49)</f>
+        <f t="shared" ref="U50:X50" si="53">SUM(U43:U49)</f>
         <v>294.02300000000008</v>
       </c>
       <c r="V50" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>235.69900000000001</v>
       </c>
       <c r="W50" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>247.16400000000002</v>
       </c>
       <c r="X50" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>272.24200000000002</v>
       </c>
-      <c r="Y50" s="144">
-        <f t="shared" ref="Y50:AA50" si="41">SUM(Y43:Y49)</f>
+      <c r="Y50" s="11">
+        <f t="shared" ref="Y50:AA50" si="54">SUM(Y43:Y49)</f>
         <v>299.327</v>
       </c>
-      <c r="Z50" s="14">
-        <f t="shared" si="41"/>
+      <c r="Z50" s="159">
+        <f t="shared" si="54"/>
         <v>315.65500000000003</v>
       </c>
-      <c r="AA50" s="11">
-        <f t="shared" si="41"/>
-        <v>0</v>
+      <c r="AA50" s="14">
+        <f t="shared" si="54"/>
+        <v>363.56299999999993</v>
       </c>
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.25">
@@ -19493,10 +20392,10 @@
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="153">
+      <c r="G51" s="127">
         <v>5.4850000000000003</v>
       </c>
-      <c r="H51" s="151">
+      <c r="H51" s="125">
         <v>6.7670000000000003</v>
       </c>
       <c r="I51" s="10"/>
@@ -19509,7 +20408,7 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10">
-        <f t="shared" ref="U51:U55" si="42">G51</f>
+        <f t="shared" ref="U51:U55" si="55">G51</f>
         <v>5.4850000000000003</v>
       </c>
       <c r="V51" s="10">
@@ -19521,27 +20420,29 @@
       <c r="X51" s="10">
         <v>8.84</v>
       </c>
-      <c r="Y51" s="145">
-        <f t="shared" ref="Y51:Y55" si="43">H51</f>
+      <c r="Y51" s="10">
+        <f t="shared" ref="Y51:Y55" si="56">H51</f>
         <v>6.7670000000000003</v>
       </c>
-      <c r="Z51" s="15">
+      <c r="Z51" s="160">
         <v>6.3209999999999997</v>
       </c>
-      <c r="AA51" s="10"/>
+      <c r="AA51" s="15">
+        <v>7.7320000000000002</v>
+      </c>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="153">
+      <c r="G52" s="127">
         <v>12.625999999999999</v>
       </c>
-      <c r="H52" s="151">
+      <c r="H52" s="125">
         <v>16.707000000000001</v>
       </c>
       <c r="I52" s="10"/>
@@ -19554,7 +20455,7 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>12.625999999999999</v>
       </c>
       <c r="V52" s="10">
@@ -19566,27 +20467,29 @@
       <c r="X52" s="10">
         <v>17.111000000000001</v>
       </c>
-      <c r="Y52" s="145">
-        <f t="shared" si="43"/>
+      <c r="Y52" s="10">
+        <f t="shared" si="56"/>
         <v>16.707000000000001</v>
       </c>
-      <c r="Z52" s="15">
+      <c r="Z52" s="160">
         <v>16.939</v>
       </c>
-      <c r="AA52" s="10"/>
+      <c r="AA52" s="15">
+        <v>17.164999999999999</v>
+      </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="153">
+      <c r="G53" s="127">
         <v>0.29799999999999999</v>
       </c>
-      <c r="H53" s="151">
+      <c r="H53" s="125">
         <v>0.35</v>
       </c>
       <c r="I53" s="10"/>
@@ -19599,7 +20502,7 @@
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>0.29799999999999999</v>
       </c>
       <c r="V53" s="10">
@@ -19611,27 +20514,29 @@
       <c r="X53" s="10">
         <v>0.33700000000000002</v>
       </c>
-      <c r="Y53" s="145">
-        <f t="shared" si="43"/>
+      <c r="Y53" s="10">
+        <f t="shared" si="56"/>
         <v>0.35</v>
       </c>
-      <c r="Z53" s="15">
+      <c r="Z53" s="160">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AA53" s="10"/>
+      <c r="AA53" s="15">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="153">
+      <c r="G54" s="127">
         <v>3.33</v>
       </c>
-      <c r="H54" s="151">
+      <c r="H54" s="125">
         <v>7.1050000000000004</v>
       </c>
       <c r="I54" s="10"/>
@@ -19644,7 +20549,7 @@
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>3.33</v>
       </c>
       <c r="V54" s="10">
@@ -19656,27 +20561,29 @@
       <c r="X54" s="10">
         <v>7.1719999999999997</v>
       </c>
-      <c r="Y54" s="145">
-        <f t="shared" si="43"/>
+      <c r="Y54" s="10">
+        <f t="shared" si="56"/>
         <v>7.1050000000000004</v>
       </c>
-      <c r="Z54" s="15">
+      <c r="Z54" s="160">
         <v>7.1589999999999998</v>
       </c>
-      <c r="AA54" s="10"/>
+      <c r="AA54" s="15">
+        <v>7.2640000000000002</v>
+      </c>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="153">
+      <c r="G55" s="127">
         <v>3.8650000000000002</v>
       </c>
-      <c r="H55" s="151">
+      <c r="H55" s="125">
         <v>4.1319999999999997</v>
       </c>
       <c r="I55" s="10"/>
@@ -19689,7 +20596,7 @@
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>3.8650000000000002</v>
       </c>
       <c r="V55" s="10">
@@ -19701,14 +20608,16 @@
       <c r="X55" s="10">
         <v>3.956</v>
       </c>
-      <c r="Y55" s="145">
-        <f t="shared" si="43"/>
+      <c r="Y55" s="10">
+        <f t="shared" si="56"/>
         <v>4.1319999999999997</v>
       </c>
-      <c r="Z55" s="15">
+      <c r="Z55" s="160">
         <v>4.0759999999999996</v>
       </c>
-      <c r="AA55" s="10"/>
+      <c r="AA55" s="15">
+        <v>4.0369999999999999</v>
+      </c>
     </row>
     <row r="56" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
@@ -19730,91 +20639,91 @@
         <f>SUM(F51:F55)</f>
         <v>0</v>
       </c>
-      <c r="G56" s="154">
+      <c r="G56" s="128">
         <f>SUM(G51:G55)</f>
         <v>25.603999999999999</v>
       </c>
-      <c r="H56" s="152">
-        <f t="shared" ref="H56:J56" si="44">SUM(H51:H55)</f>
+      <c r="H56" s="126">
+        <f t="shared" ref="H56:J56" si="57">SUM(H51:H55)</f>
         <v>35.061</v>
       </c>
       <c r="I56" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J56" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="N56" s="11">
-        <f t="shared" ref="N56:T56" si="45">SUM(N51:N55)</f>
+        <f t="shared" ref="N56:T56" si="58">SUM(N51:N55)</f>
         <v>0</v>
       </c>
       <c r="O56" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P56" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="Q56" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="R56" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="S56" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="T56" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="U56" s="11">
-        <f t="shared" ref="U56:X56" si="46">SUM(U51:U55)</f>
+        <f t="shared" ref="U56:X56" si="59">SUM(U51:U55)</f>
         <v>25.603999999999999</v>
       </c>
       <c r="V56" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>29.246000000000002</v>
       </c>
       <c r="W56" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>26.462</v>
       </c>
       <c r="X56" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>37.416000000000004</v>
       </c>
-      <c r="Y56" s="144">
-        <f t="shared" ref="Y56:AA56" si="47">SUM(Y51:Y55)</f>
+      <c r="Y56" s="11">
+        <f t="shared" ref="Y56:AA56" si="60">SUM(Y51:Y55)</f>
         <v>35.061</v>
       </c>
-      <c r="Z56" s="14">
-        <f t="shared" si="47"/>
+      <c r="Z56" s="159">
+        <f t="shared" si="60"/>
         <v>34.774999999999999</v>
       </c>
-      <c r="AA56" s="11">
-        <f t="shared" si="47"/>
-        <v>0</v>
+      <c r="AA56" s="14">
+        <f t="shared" si="60"/>
+        <v>36.408000000000001</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="153">
+      <c r="G57" s="127">
         <v>0.54300000000000004</v>
       </c>
-      <c r="H57" s="151">
+      <c r="H57" s="125">
         <v>0.20399999999999999</v>
       </c>
       <c r="I57" s="10"/>
@@ -19827,7 +20736,7 @@
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
       <c r="U57" s="10">
-        <f t="shared" ref="U57:U61" si="48">G57</f>
+        <f t="shared" ref="U57:U61" si="61">G57</f>
         <v>0.54300000000000004</v>
       </c>
       <c r="V57" s="10">
@@ -19839,27 +20748,29 @@
       <c r="X57" s="10">
         <v>0.29499999999999998</v>
       </c>
-      <c r="Y57" s="145">
-        <f t="shared" ref="Y57:Y61" si="49">H57</f>
+      <c r="Y57" s="10">
+        <f t="shared" ref="Y57:Y61" si="62">H57</f>
         <v>0.20399999999999999</v>
       </c>
-      <c r="Z57" s="15">
+      <c r="Z57" s="160">
         <v>0.189</v>
       </c>
-      <c r="AA57" s="10"/>
+      <c r="AA57" s="15">
+        <v>0.17299999999999999</v>
+      </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="153">
+      <c r="G58" s="127">
         <v>75</v>
       </c>
-      <c r="H58" s="151">
+      <c r="H58" s="125">
         <v>75</v>
       </c>
       <c r="I58" s="10"/>
@@ -19872,7 +20783,7 @@
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>75</v>
       </c>
       <c r="V58" s="10">
@@ -19884,27 +20795,29 @@
       <c r="X58" s="10">
         <v>75</v>
       </c>
-      <c r="Y58" s="145">
-        <f t="shared" si="49"/>
+      <c r="Y58" s="10">
+        <f t="shared" si="62"/>
         <v>75</v>
       </c>
-      <c r="Z58" s="15">
+      <c r="Z58" s="160">
         <v>75</v>
       </c>
-      <c r="AA58" s="10"/>
+      <c r="AA58" s="15">
+        <v>75</v>
+      </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="153">
+      <c r="G59" s="127">
         <v>105.45099999999999</v>
       </c>
-      <c r="H59" s="151">
+      <c r="H59" s="125">
         <v>0</v>
       </c>
       <c r="I59" s="10"/>
@@ -19917,7 +20830,7 @@
       <c r="S59" s="10"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>105.45099999999999</v>
       </c>
       <c r="V59" s="10">
@@ -19929,25 +20842,25 @@
       <c r="X59" s="10">
         <v>0</v>
       </c>
-      <c r="Y59" s="145">
-        <f t="shared" si="49"/>
+      <c r="Y59" s="10">
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="Z59" s="15"/>
-      <c r="AA59" s="10"/>
+      <c r="Z59" s="160"/>
+      <c r="AA59" s="15"/>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="153">
+      <c r="G60" s="127">
         <v>0.23300000000000001</v>
       </c>
-      <c r="H60" s="151">
+      <c r="H60" s="125">
         <v>2.9279999999999999</v>
       </c>
       <c r="I60" s="10"/>
@@ -19960,7 +20873,7 @@
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
       <c r="U60" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.23300000000000001</v>
       </c>
       <c r="V60" s="10">
@@ -19972,27 +20885,29 @@
       <c r="X60" s="10">
         <v>0.75800000000000001</v>
       </c>
-      <c r="Y60" s="145">
-        <f t="shared" si="49"/>
+      <c r="Y60" s="10">
+        <f t="shared" si="62"/>
         <v>2.9279999999999999</v>
       </c>
-      <c r="Z60" s="15">
+      <c r="Z60" s="160">
         <v>2.8820000000000001</v>
       </c>
-      <c r="AA60" s="10"/>
+      <c r="AA60" s="15">
+        <v>31.266999999999999</v>
+      </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="153">
+      <c r="G61" s="127">
         <v>0.129</v>
       </c>
-      <c r="H61" s="151">
+      <c r="H61" s="125">
         <v>3.0329999999999999</v>
       </c>
       <c r="I61" s="10"/>
@@ -20005,7 +20920,7 @@
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="61"/>
         <v>0.129</v>
       </c>
       <c r="V61" s="10">
@@ -20017,14 +20932,16 @@
       <c r="X61" s="10">
         <v>2.9580000000000002</v>
       </c>
-      <c r="Y61" s="145">
-        <f t="shared" si="49"/>
+      <c r="Y61" s="10">
+        <f t="shared" si="62"/>
         <v>3.0329999999999999</v>
       </c>
-      <c r="Z61" s="15">
+      <c r="Z61" s="160">
         <v>3.3460000000000001</v>
       </c>
-      <c r="AA61" s="10"/>
+      <c r="AA61" s="15">
+        <v>3.641</v>
+      </c>
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
@@ -20051,72 +20968,72 @@
         <v>206.95999999999998</v>
       </c>
       <c r="H62" s="14">
-        <f t="shared" ref="H62:J62" si="50">SUM(H56:H61)</f>
+        <f t="shared" ref="H62:J62" si="63">SUM(H56:H61)</f>
         <v>116.226</v>
       </c>
       <c r="I62" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J62" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="N62" s="11">
-        <f t="shared" ref="N62:T62" si="51">SUM(N56:N61)</f>
+        <f t="shared" ref="N62:T62" si="64">SUM(N56:N61)</f>
         <v>0</v>
       </c>
       <c r="O62" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="P62" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Q62" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="R62" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S62" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="T62" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="U62" s="11">
-        <f t="shared" ref="U62:X62" si="52">SUM(U56:U61)</f>
+        <f t="shared" ref="U62:X62" si="65">SUM(U56:U61)</f>
         <v>206.95999999999998</v>
       </c>
       <c r="V62" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v>108.285</v>
       </c>
       <c r="W62" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v>105.407</v>
       </c>
       <c r="X62" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v>116.42700000000001</v>
       </c>
-      <c r="Y62" s="144">
-        <f t="shared" ref="Y62:AA62" si="53">SUM(Y56:Y61)</f>
+      <c r="Y62" s="11">
+        <f t="shared" ref="Y62:AA62" si="66">SUM(Y56:Y61)</f>
         <v>116.226</v>
       </c>
-      <c r="Z62" s="14">
-        <f t="shared" si="53"/>
+      <c r="Z62" s="159">
+        <f t="shared" si="66"/>
         <v>116.19200000000001</v>
       </c>
-      <c r="AA62" s="11">
-        <f t="shared" si="53"/>
-        <v>0</v>
+      <c r="AA62" s="14">
+        <f t="shared" si="66"/>
+        <v>146.489</v>
       </c>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.25">
@@ -20124,15 +21041,15 @@
         <v>69</v>
       </c>
       <c r="C63" s="10">
-        <f t="shared" ref="C63:E63" si="54">C50-C62</f>
+        <f t="shared" ref="C63:E63" si="67">C50-C62</f>
         <v>0</v>
       </c>
       <c r="D63" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="E63" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="F63" s="10">
@@ -20144,75 +21061,75 @@
         <v>87.063000000000102</v>
       </c>
       <c r="H63" s="15">
-        <f t="shared" ref="H63:J63" si="55">H50-H62</f>
+        <f t="shared" ref="H63:J63" si="68">H50-H62</f>
         <v>183.101</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="J63" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="N63" s="10">
-        <f t="shared" ref="N63:T63" si="56">N50-N62</f>
+        <f t="shared" ref="N63:T63" si="69">N50-N62</f>
         <v>0</v>
       </c>
       <c r="O63" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="P63" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="Q63" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="R63" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S63" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="T63" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="U63" s="10">
-        <f t="shared" ref="U63:X63" si="57">U50-U62</f>
+        <f t="shared" ref="U63:X63" si="70">U50-U62</f>
         <v>87.063000000000102</v>
       </c>
       <c r="V63" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>127.41400000000002</v>
       </c>
       <c r="W63" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>141.75700000000001</v>
       </c>
       <c r="X63" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>155.815</v>
       </c>
-      <c r="Y63" s="145">
-        <f t="shared" ref="Y63:AA63" si="58">Y50-Y62</f>
+      <c r="Y63" s="10">
+        <f t="shared" ref="Y63:AA63" si="71">Y50-Y62</f>
         <v>183.101</v>
       </c>
-      <c r="Z63" s="15">
-        <f t="shared" si="58"/>
+      <c r="Z63" s="160">
+        <f t="shared" si="71"/>
         <v>199.46300000000002</v>
       </c>
-      <c r="AA63" s="10">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA63" s="15">
+        <f t="shared" si="71"/>
+        <v>217.07399999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>72</v>
       </c>
@@ -20222,18 +21139,18 @@
       <c r="F65" s="49"/>
       <c r="G65" s="121"/>
       <c r="H65" s="16"/>
-      <c r="Y65" s="148"/>
-      <c r="Z65" s="16"/>
-    </row>
-    <row r="83" spans="8:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z65" s="161"/>
+      <c r="AA65" s="16"/>
+    </row>
+    <row r="83" spans="8:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H83" s="41"/>
-      <c r="Y83" s="149"/>
-      <c r="Z83" s="41"/>
-    </row>
-    <row r="84" spans="8:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z83" s="162"/>
+      <c r="AA83" s="41"/>
+    </row>
+    <row r="84" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H84" s="16"/>
-      <c r="Y84" s="148"/>
-      <c r="Z84" s="16"/>
+      <c r="Z84" s="161"/>
+      <c r="AA84" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -20250,10 +21167,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A670AE-D1F2-4470-937E-18BA568AD24E}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20262,7 +21179,7 @@
     <col min="13" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="119">
         <v>45413</v>
       </c>
@@ -20302,26 +21219,77 @@
       <c r="N1" s="119">
         <v>45778</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="119">
+        <v>45809</v>
+      </c>
+      <c r="P1" s="119">
+        <v>45839</v>
+      </c>
+      <c r="Q1" s="119">
+        <v>45870</v>
+      </c>
+      <c r="R1" s="119">
+        <v>45901</v>
+      </c>
+      <c r="S1" s="119">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>137</v>
       </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
       <c r="K5">
         <v>6</v>
       </c>
@@ -20334,70 +21302,192 @@
       <c r="N5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>138</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
         <v>139</v>
       </c>
-      <c r="I10">
-        <v>80</v>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="J10">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="K10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I11">
-        <v>90</v>
-      </c>
-      <c r="J11">
-        <v>90</v>
-      </c>
-      <c r="K11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>141</v>
-      </c>
-      <c r="I12">
-        <v>40</v>
-      </c>
-      <c r="J12">
-        <v>40</v>
-      </c>
-      <c r="K12">
-        <v>60</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="L10">
+        <v>239</v>
+      </c>
+      <c r="M10">
+        <v>239</v>
+      </c>
+      <c r="N10">
+        <v>239</v>
+      </c>
+      <c r="O10">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11">
+        <v>179</v>
+      </c>
+      <c r="M11">
+        <v>179</v>
+      </c>
+      <c r="N11">
+        <v>179</v>
+      </c>
+      <c r="O11">
+        <v>179</v>
+      </c>
+      <c r="P11">
+        <v>179</v>
+      </c>
+      <c r="Q11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q12">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L13">
+        <v>280</v>
+      </c>
+      <c r="M13">
+        <v>280</v>
+      </c>
+      <c r="N13">
+        <v>280</v>
+      </c>
+      <c r="O13">
+        <v>280</v>
+      </c>
+      <c r="P13">
+        <v>280</v>
+      </c>
+      <c r="Q13">
+        <v>280</v>
+      </c>
+      <c r="R13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14">
+        <v>280</v>
+      </c>
+      <c r="M14">
+        <v>280</v>
+      </c>
+      <c r="N14">
+        <v>280</v>
+      </c>
+      <c r="O14">
+        <v>280</v>
+      </c>
+      <c r="P14">
+        <v>280</v>
+      </c>
+      <c r="Q14">
+        <v>280</v>
+      </c>
+      <c r="R14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S16">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20447,7 +21537,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1">
         <v>2023</v>
@@ -20476,16 +21566,16 @@
       <c r="L1" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="143" t="s">
+      <c r="M1" t="s">
         <v>131</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B2">
         <v>152.49</v>
@@ -20525,7 +21615,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B3">
         <v>56.945</v>
@@ -20565,7 +21655,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B4">
         <v>21.483000000000001</v>
@@ -20605,7 +21695,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B5">
         <v>1.323</v>
@@ -20645,7 +21735,7 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1">
         <f>SUM(B2:B5)</f>
@@ -20694,7 +21784,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B7">
         <v>17.004000000000001</v>
@@ -20734,7 +21824,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B8">
         <v>2.605</v>
@@ -20774,7 +21864,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B9">
         <v>7.2430000000000003</v>
@@ -20814,7 +21904,7 @@
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B10" s="1">
         <f>SUM(B7:B9)</f>
@@ -20863,7 +21953,7 @@
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B11" s="1">
         <f>B6+B10</f>
@@ -20912,25 +22002,25 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>203</v>
-      </c>
-      <c r="J14" s="164">
+        <v>200</v>
+      </c>
+      <c r="J14" s="131">
         <f t="shared" ref="J14:M14" si="19">J2/F2-1</f>
         <v>0.35131204169444263</v>
       </c>
-      <c r="K14" s="164">
+      <c r="K14" s="131">
         <f t="shared" si="19"/>
         <v>0.37821314436570797</v>
       </c>
-      <c r="L14" s="164">
+      <c r="L14" s="131">
         <f t="shared" si="19"/>
         <v>0.49770208854618803</v>
       </c>
-      <c r="M14" s="164">
+      <c r="M14" s="131">
         <f t="shared" si="19"/>
         <v>0.48751607009946496</v>
       </c>
-      <c r="N14" s="165">
+      <c r="N14" s="132">
         <f>N2/J2-1</f>
         <v>0.87119921069154183</v>
       </c>
@@ -29308,14 +30398,14 @@
       <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="135"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -29722,10 +30812,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="136" t="s">
+      <c r="H17" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="137"/>
+      <c r="I17" s="146"/>
       <c r="M17" s="78"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -29733,8 +30823,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="138"/>
-      <c r="I18" s="139"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="148"/>
       <c r="M18" s="78"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -30157,14 +31247,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="140" t="s">
+      <c r="H43" s="149" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="141"/>
-      <c r="J43" s="141"/>
-      <c r="K43" s="141"/>
-      <c r="L43" s="141"/>
-      <c r="M43" s="142"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="151"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
